--- a/data/processed/rhyolitic_glasses/kraw_summaries_B989.xlsx
+++ b/data/processed/rhyolitic_glasses/kraw_summaries_B989.xlsx
@@ -489,7 +489,7 @@
         <v>4.41</v>
       </c>
       <c r="E2">
-        <v>24.52</v>
+        <v>5.81</v>
       </c>
       <c r="F2">
         <v>5.95</v>
@@ -498,22 +498,22 @@
         <v>4.55</v>
       </c>
       <c r="H2">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="I2">
-        <v>24.52</v>
+        <v>5.81</v>
       </c>
       <c r="J2">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="K2">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L2">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="M2">
-        <v>24.21</v>
+        <v>4.29</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -533,7 +533,7 @@
         <v>4.12</v>
       </c>
       <c r="E3">
-        <v>24.59</v>
+        <v>6.07</v>
       </c>
       <c r="F3">
         <v>5.79</v>
@@ -542,22 +542,22 @@
         <v>4.88</v>
       </c>
       <c r="H3">
-        <v>6.95</v>
+        <v>6.96</v>
       </c>
       <c r="I3">
-        <v>24.59</v>
+        <v>6.07</v>
       </c>
       <c r="J3">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="K3">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="L3">
-        <v>6.95</v>
+        <v>6.96</v>
       </c>
       <c r="M3">
-        <v>24.22</v>
+        <v>4.46</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -577,7 +577,7 @@
         <v>4.29</v>
       </c>
       <c r="E4">
-        <v>24.55</v>
+        <v>5.91</v>
       </c>
       <c r="F4">
         <v>5.88</v>
@@ -586,22 +586,22 @@
         <v>4.67</v>
       </c>
       <c r="H4">
-        <v>7.06</v>
+        <v>7.05</v>
       </c>
       <c r="I4">
-        <v>24.55</v>
+        <v>5.91</v>
       </c>
       <c r="J4">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="K4">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L4">
-        <v>7.06</v>
+        <v>7.05</v>
       </c>
       <c r="M4">
-        <v>24.21</v>
+        <v>4.35</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -621,7 +621,7 @@
         <v>4.57</v>
       </c>
       <c r="E5">
-        <v>24.5</v>
+        <v>5.7</v>
       </c>
       <c r="F5">
         <v>6.01</v>
@@ -630,22 +630,22 @@
         <v>4.4</v>
       </c>
       <c r="H5">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="I5">
-        <v>24.5</v>
+        <v>5.7</v>
       </c>
       <c r="J5">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="K5">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="L5">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="M5">
-        <v>24.2</v>
+        <v>4.32</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -665,7 +665,7 @@
         <v>4.47</v>
       </c>
       <c r="E6">
-        <v>24.51</v>
+        <v>5.76</v>
       </c>
       <c r="F6">
         <v>5.96</v>
@@ -674,22 +674,22 @@
         <v>4.48</v>
       </c>
       <c r="H6">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="I6">
-        <v>24.51</v>
+        <v>5.76</v>
       </c>
       <c r="J6">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="K6">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="L6">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="M6">
-        <v>24.2</v>
+        <v>4.24</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
         <v>4.69</v>
       </c>
       <c r="E7">
-        <v>24.48</v>
+        <v>5.64</v>
       </c>
       <c r="F7">
         <v>6.2</v>
@@ -721,19 +721,19 @@
         <v>7.44</v>
       </c>
       <c r="I7">
-        <v>24.48</v>
+        <v>5.64</v>
       </c>
       <c r="J7">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="K7">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="L7">
         <v>7.44</v>
       </c>
       <c r="M7">
-        <v>24.21</v>
+        <v>4.26</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
